--- a/2020/Requisition/22.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/22.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DB266-675D-4DEF-BF4D-626BCD15C8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC80D5-131A-4200-82AA-1DAD84D1D47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="14760" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
@@ -438,10 +438,10 @@
     <t xml:space="preserve">Blue </t>
   </si>
   <si>
-    <t xml:space="preserve">White </t>
-  </si>
-  <si>
     <t>22.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; Gold </t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1349,11 +1349,11 @@
         <v>760.9</v>
       </c>
       <c r="C7" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10">
         <f>C7*B7</f>
-        <v>15218</v>
+        <v>22827</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>92</v>
@@ -1883,14 +1883,14 @@
         <v>1140.845</v>
       </c>
       <c r="C23" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D23" s="12">
         <f>C23*B23</f>
-        <v>115225.345</v>
+        <v>101535.205</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2870,11 +2870,11 @@
         <v>1024.5550000000001</v>
       </c>
       <c r="C60" s="8">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D60" s="10">
         <f t="shared" si="0"/>
-        <v>102455.5</v>
+        <v>153683.25</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>92</v>
@@ -3821,11 +3821,11 @@
         <v>7165.02</v>
       </c>
       <c r="C92" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" s="10">
         <f t="shared" si="2"/>
-        <v>64485.180000000008</v>
+        <v>78815.22</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>130</v>
@@ -3934,11 +3934,11 @@
       <c r="B96" s="45"/>
       <c r="C96" s="16">
         <f>SUBTOTAL(9,C7:C95)</f>
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="D96" s="17">
         <f>SUBTOTAL(9,D7:D95)</f>
-        <v>297384.02500000002</v>
+        <v>356860.67500000005</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="33"/>
@@ -4095,7 +4095,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="21">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>128</v>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C105" s="22">
         <f>SUBTOTAL(9,C100:C104)</f>
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="23"/>
